--- a/[01]-curso-de-excel-40-horas/Aula 7 – Dicas para Formatação de Dados.xlsx
+++ b/[01]-curso-de-excel-40-horas/Aula 7 – Dicas para Formatação de Dados.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\Curso em Vídeo\curso-de-excel-40-horas\[01]-curso-de-excel-40-horas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE7E8AA-E796-476C-8903-7CF9BD548866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417606A9-08C3-417B-BFAC-9D28FAF55DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{09B23C73-1137-40BB-8BDF-96D337ACDE41}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Estado">Planilha1!$D:$D</definedName>
+    <definedName name="Municípios">Planilha1!$B:$B</definedName>
+    <definedName name="População">Planilha1!$C:$C</definedName>
+    <definedName name="Ranking">Planilha1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="145">
   <si>
     <t>Municípios</t>
   </si>
@@ -44,20 +50,443 @@
     <t>População</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>São José do Rio Preto</t>
-  </si>
-  <si>
     <t>Levantamento Populacional</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Arapiraca</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
+    <t>Divinópolis</t>
+  </si>
+  <si>
+    <t>Erechim</t>
+  </si>
+  <si>
+    <t>Franca</t>
+  </si>
+  <si>
+    <t>Guarapari</t>
+  </si>
+  <si>
+    <t>Hortolândia</t>
+  </si>
+  <si>
+    <t>Itabuna</t>
+  </si>
+  <si>
+    <t>Jataí</t>
+  </si>
+  <si>
+    <t>Limeira</t>
+  </si>
+  <si>
+    <t>Marília</t>
+  </si>
+  <si>
+    <t>Nova Friburgo</t>
+  </si>
+  <si>
+    <t>Olinda</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>Quixadá</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto</t>
+  </si>
+  <si>
+    <t>Santarém</t>
+  </si>
+  <si>
+    <t>Taubaté</t>
+  </si>
+  <si>
+    <t>Uberaba</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Xanxerê</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Jundiaí</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>Osasco</t>
+  </si>
+  <si>
+    <t>Piracicaba</t>
+  </si>
+  <si>
+    <t>Quatis</t>
+  </si>
+  <si>
+    <t>Rondonópolis</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>São Gonçalo</t>
+  </si>
+  <si>
+    <t>1,091,737</t>
+  </si>
+  <si>
+    <t>Teresópolis</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>Vitória da Conquista</t>
+  </si>
+  <si>
+    <t>Açailândia</t>
+  </si>
+  <si>
+    <t>Barra Mansa</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>1,223,237</t>
+  </si>
+  <si>
+    <t>Dourados</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Embu das Artes</t>
+  </si>
+  <si>
+    <t>Feira de Santana</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>1,379,182</t>
+  </si>
+  <si>
+    <t>Imperatriz</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Lages</t>
+  </si>
+  <si>
+    <t>Macaé</t>
+  </si>
+  <si>
+    <t>Ourinhos</t>
+  </si>
+  <si>
+    <t>Petrópolis</t>
+  </si>
+  <si>
+    <t>Queimados</t>
+  </si>
+  <si>
+    <t>Rio Claro</t>
+  </si>
+  <si>
+    <t>São Vicente</t>
+  </si>
+  <si>
+    <t>Taquara</t>
+  </si>
+  <si>
+    <t>União da Vitória</t>
+  </si>
+  <si>
+    <t>Valença</t>
+  </si>
+  <si>
+    <t>Wele-nsa</t>
+  </si>
+  <si>
+    <t>Xambrê</t>
+  </si>
+  <si>
+    <t>Ypiranga</t>
+  </si>
+  <si>
+    <t>Zabelê</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Total Populacional</t>
+  </si>
+  <si>
+    <t>Média Populacional</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>2º</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>7º</t>
+  </si>
+  <si>
+    <t>8º</t>
+  </si>
+  <si>
+    <t>9º</t>
+  </si>
+  <si>
+    <t>10º</t>
+  </si>
+  <si>
+    <t>11º</t>
+  </si>
+  <si>
+    <t>12º</t>
+  </si>
+  <si>
+    <t>13º</t>
+  </si>
+  <si>
+    <t>14º</t>
+  </si>
+  <si>
+    <t>15º</t>
+  </si>
+  <si>
+    <t>16º</t>
+  </si>
+  <si>
+    <t>17º</t>
+  </si>
+  <si>
+    <t>18º</t>
+  </si>
+  <si>
+    <t>19º</t>
+  </si>
+  <si>
+    <t>20º</t>
+  </si>
+  <si>
+    <t>21º</t>
+  </si>
+  <si>
+    <t>22º</t>
+  </si>
+  <si>
+    <t>23º</t>
+  </si>
+  <si>
+    <t>24º</t>
+  </si>
+  <si>
+    <t>25º</t>
+  </si>
+  <si>
+    <t>26º</t>
+  </si>
+  <si>
+    <t>27º</t>
+  </si>
+  <si>
+    <t>28º</t>
+  </si>
+  <si>
+    <t>29º</t>
+  </si>
+  <si>
+    <t>30º</t>
+  </si>
+  <si>
+    <t>31º</t>
+  </si>
+  <si>
+    <t>32º</t>
+  </si>
+  <si>
+    <t>33º</t>
+  </si>
+  <si>
+    <t>34º</t>
+  </si>
+  <si>
+    <t>35º</t>
+  </si>
+  <si>
+    <t>36º</t>
+  </si>
+  <si>
+    <t>37º</t>
+  </si>
+  <si>
+    <t>38º</t>
+  </si>
+  <si>
+    <t>39º</t>
+  </si>
+  <si>
+    <t>40º</t>
+  </si>
+  <si>
+    <t>41º</t>
+  </si>
+  <si>
+    <t>42º</t>
+  </si>
+  <si>
+    <t>43º</t>
+  </si>
+  <si>
+    <t>44º</t>
+  </si>
+  <si>
+    <t>45º</t>
+  </si>
+  <si>
+    <t>46º</t>
+  </si>
+  <si>
+    <t>47º</t>
+  </si>
+  <si>
+    <t>48º</t>
+  </si>
+  <si>
+    <t>49º</t>
+  </si>
+  <si>
+    <t>50º</t>
+  </si>
+  <si>
+    <t>51º</t>
+  </si>
+  <si>
+    <t>52º</t>
+  </si>
+  <si>
+    <t>53º</t>
+  </si>
+  <si>
+    <t>54º</t>
+  </si>
+  <si>
+    <t>55º</t>
+  </si>
+  <si>
+    <t>56º</t>
+  </si>
+  <si>
+    <t>57º</t>
+  </si>
+  <si>
+    <t>58º</t>
+  </si>
+  <si>
+    <t>59º</t>
+  </si>
+  <si>
+    <t>60º</t>
+  </si>
+  <si>
+    <t>Total de Municípios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +516,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -102,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,25 +545,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -462,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227E2A5-F470-4C76-8881-9DE0F379602A}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -470,65 +949,945 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12038175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>123430</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>420003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>23945873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(População)</f>
+        <v>13403.794999999995</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(População)</f>
+        <v>235.15429824561394</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUM(C3:C62)</f>
+        <v>13403.794999999995</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(C3:C62)</f>
+        <v>235.15429824561394</v>
+      </c>
+      <c r="K3" s="2">
+        <f>LARGE(C3:C62,1)</f>
+        <v>720.21600000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <f>SMALL(C3:C62,1)</f>
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <f>COUNT(C3:C62)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>720.21600000000001</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <f>SUM(C3,C9)</f>
+        <v>627.47699999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>711.37800000000004</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUM(C3:C10)</f>
+        <v>3356.6729999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>699.94399999999996</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2">
+        <f>SUM(C3:C6,C10:C20)</f>
+        <v>5256.6139999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4">
+        <v>627.47699999999998</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4">
+        <v>597.65800000000002</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4">
+        <v>580.87</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4">
+        <v>368.35500000000002</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>355.90100000000001</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4">
+        <v>423.00599999999997</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4">
+        <v>413.48700000000002</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4">
+        <v>407.25200000000001</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>393.73399999999998</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4">
+        <v>341.12799999999999</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>337.09199999999998</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>317.91500000000002</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4">
+        <v>312.99799999999999</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>308.339</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4">
+        <v>306.678</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>306.29599999999999</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4">
+        <v>276.46800000000002</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="4">
+        <v>261.81099999999998</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4">
+        <v>258.68200000000002</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <v>238.32599999999999</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>240.40799999999999</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4">
+        <v>236.042</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>234.25899999999999</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>232.67099999999999</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4">
+        <v>225.495</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4">
+        <v>209.548</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>218.124</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
+        <v>191.614</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4">
+        <v>183.352</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4">
+        <v>183.34700000000001</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4">
+        <v>157.74299999999999</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4">
+        <v>151.33500000000001</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>166.68</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4">
+        <v>113.542</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4">
+        <v>111.75700000000001</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>105.86199999999999</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4">
+        <v>104.56699999999999</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="4">
+        <v>95.552000000000007</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4">
+        <v>126.70099999999999</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4">
+        <v>88.084999999999994</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="4">
+        <v>49.643999999999998</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="4">
+        <v>57.584000000000003</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="4">
+        <v>56.710999999999999</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="4">
+        <v>33.694000000000003</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="4">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7.1520000000000001</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="4">
+        <v>4.516</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4">
+        <v>57.584000000000003</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4">
+        <v>56.710999999999999</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="4">
+        <v>95.552000000000007</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="4">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="4">
+        <v>7.1520000000000001</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
